--- a/data/trans_orig/PCS12_SP_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B37B7F-D408-4500-A701-571F6F72A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E8B8582-1162-426F-BCCA-2CF10E9FAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58996E74-926D-410A-B26F-925643994916}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{66DF93BA-6449-46FF-ADA3-7ADA98C731DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -305,7 +305,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>36,23%</t>
@@ -524,7 +524,7 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>36,14%</t>
@@ -731,211 +731,211 @@
     <t>79,49%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF133493-FA06-4A9C-9A23-1A10BC94F99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BAB1A2-C3D1-4A42-B707-614D904DDE87}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1549,7 @@
         <v>1361</v>
       </c>
       <c r="N5" s="7">
-        <v>1372540</v>
+        <v>1372539</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1600,7 +1600,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1674,7 @@
         <v>1502</v>
       </c>
       <c r="D8" s="7">
-        <v>1547337</v>
+        <v>1547338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1963,7 @@
         <v>1417</v>
       </c>
       <c r="N13" s="7">
-        <v>1436751</v>
+        <v>1436752</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1984,7 +1984,7 @@
         <v>2685</v>
       </c>
       <c r="D14" s="7">
-        <v>2758864</v>
+        <v>2758863</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1999,7 +1999,7 @@
         <v>2409</v>
       </c>
       <c r="I14" s="7">
-        <v>2460126</v>
+        <v>2460125</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2035,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2050,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3037385B-713E-4779-B51F-A89900DE0438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16594F0C-5330-4192-B149-726D1C740051}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2234,7 @@
         <v>654</v>
       </c>
       <c r="I4" s="7">
-        <v>700012</v>
+        <v>700013</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2336,7 +2336,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2610,7 +2610,7 @@
         <v>770</v>
       </c>
       <c r="N11" s="7">
-        <v>849912</v>
+        <v>849913</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2661,7 +2661,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A6A940-E40C-42A1-98A0-A4FAF3625E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3C1E62-69DF-4C3C-8064-2F7C64571994}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3361,7 @@
         <v>929</v>
       </c>
       <c r="N11" s="7">
-        <v>980921</v>
+        <v>980922</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3412,7 +3412,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F8D4F9-CCA9-4FA1-857D-98C9CC432FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E9A68-F3DA-49FC-9CD7-B7FB875D7B76}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3721,7 @@
         <v>326</v>
       </c>
       <c r="D4" s="7">
-        <v>243393</v>
+        <v>229727</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3736,7 +3736,7 @@
         <v>889</v>
       </c>
       <c r="I4" s="7">
-        <v>503895</v>
+        <v>455030</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3751,16 +3751,16 @@
         <v>1215</v>
       </c>
       <c r="N4" s="7">
-        <v>747288</v>
+        <v>684756</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,46 +3772,46 @@
         <v>359</v>
       </c>
       <c r="D5" s="7">
-        <v>293494</v>
+        <v>280669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
       </c>
       <c r="I5" s="7">
-        <v>321148</v>
+        <v>290526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>877</v>
       </c>
       <c r="N5" s="7">
-        <v>614642</v>
+        <v>571195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3823,7 @@
         <v>685</v>
       </c>
       <c r="D6" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3838,7 @@
         <v>1407</v>
       </c>
       <c r="I6" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3853,7 @@
         <v>2092</v>
       </c>
       <c r="N6" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,46 +3876,46 @@
         <v>435</v>
       </c>
       <c r="D7" s="7">
-        <v>446010</v>
+        <v>620057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>810</v>
       </c>
       <c r="I7" s="7">
-        <v>499166</v>
+        <v>460709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1245</v>
       </c>
       <c r="N7" s="7">
-        <v>945176</v>
+        <v>1080766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,46 +3927,46 @@
         <v>1548</v>
       </c>
       <c r="D8" s="7">
-        <v>1706722</v>
+        <v>1661489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2101</v>
       </c>
       <c r="I8" s="7">
-        <v>1744104</v>
+        <v>1771387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3649</v>
       </c>
       <c r="N8" s="7">
-        <v>3450826</v>
+        <v>3432876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3978,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3993,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4008,7 @@
         <v>4894</v>
       </c>
       <c r="N9" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,46 +4031,46 @@
         <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>86756</v>
+        <v>82305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
       </c>
       <c r="I10" s="7">
-        <v>112476</v>
+        <v>103442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>291</v>
       </c>
       <c r="N10" s="7">
-        <v>199232</v>
+        <v>185747</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4082,46 @@
         <v>579</v>
       </c>
       <c r="D11" s="7">
-        <v>583962</v>
+        <v>562156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
       </c>
       <c r="I11" s="7">
-        <v>598172</v>
+        <v>554147</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1389</v>
       </c>
       <c r="N11" s="7">
-        <v>1182134</v>
+        <v>1116303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4148,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4163,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,7 +4186,7 @@
         <v>861</v>
       </c>
       <c r="D13" s="7">
-        <v>776160</v>
+        <v>932089</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4201,7 +4201,7 @@
         <v>1890</v>
       </c>
       <c r="I13" s="7">
-        <v>1115537</v>
+        <v>1019181</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>284</v>
@@ -4216,7 +4216,7 @@
         <v>2751</v>
       </c>
       <c r="N13" s="7">
-        <v>1891697</v>
+        <v>1951270</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>287</v>
@@ -4237,7 +4237,7 @@
         <v>2486</v>
       </c>
       <c r="D14" s="7">
-        <v>2584178</v>
+        <v>2504314</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>290</v>
@@ -4252,7 +4252,7 @@
         <v>3429</v>
       </c>
       <c r="I14" s="7">
-        <v>2663423</v>
+        <v>2616059</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>293</v>
@@ -4267,7 +4267,7 @@
         <v>5915</v>
       </c>
       <c r="N14" s="7">
-        <v>5247601</v>
+        <v>5120373</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
@@ -4288,7 +4288,7 @@
         <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4303,7 @@
         <v>5319</v>
       </c>
       <c r="I15" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4318,7 @@
         <v>8666</v>
       </c>
       <c r="N15" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
